--- a/PlanDigitization_Misreport/wwwroot/UploadFiles/Template/Template_3.xlsx
+++ b/PlanDigitization_Misreport/wwwroot/UploadFiles/Template/Template_3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Hosting_Test\Githubbackup\Hosting_4\i4metricstest_misreport_api\PlanDigitization_Misreport\wwwroot\UploadFiles\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Hosting_Test\Githubbackup\Hosting_5\i4metricstest_misreport_api\PlanDigitization_Misreport\wwwroot\UploadFiles\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Variantwise Utilisation" sheetId="53" state="hidden" r:id="rId3"/>
     <sheet name="Diagnostic" sheetId="21" r:id="rId4"/>
     <sheet name="Station-Wise_Top 10 Errors" sheetId="29" r:id="rId5"/>
-    <sheet name="Station1_Production Summary" sheetId="18" r:id="rId6"/>
+    <sheet name="Station1_Production Summary" sheetId="18" state="hidden" r:id="rId6"/>
     <sheet name="Station1_Top 10 Rejections" sheetId="27" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="55" state="hidden" r:id="rId8"/>
     <sheet name="Hourlytracker" sheetId="57" r:id="rId9"/>
@@ -29,6 +29,7 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="Actual" localSheetId="1">OFFSET('[1]Production Summary'!$C$3,,,COUNTIF('[1]Production Summary'!$C$3:$C$97,"&lt;&gt;"))</definedName>
@@ -526,16 +527,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h\.mm\.ss.0"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -770,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1061,102 +1068,89 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1166,22 +1160,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1196,40 +1190,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,13 +1232,13 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -1259,25 +1253,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1299,24 +1293,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1328,133 +1343,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1549,7 +1567,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4496,7 +4513,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4671,7 +4687,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4749,6 +4764,316 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Variant-4 Top 10 Rejection Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Station1_Top 10 Rejections'!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rejection Occurrence </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Station1_Top 10 Rejections'!$C$40:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Station1_Top 10 Rejections'!$D$40:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A17D-4416-9E09-C17B91BBB581}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="134638528"/>
+        <c:axId val="134639072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="134638528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134639072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134639072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134638528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5058,7 +5383,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5368,7 +5693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5405,7 +5730,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6073,7 +6397,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -6154,7 +6477,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
@@ -6199,7 +6521,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6268,6 +6589,3248 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Cummulative Production Summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum. pdtn/stn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stn-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]All Stn pdtn summary '!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-E708-44FF-8445-E468C7D8BC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="168669184"/>
+        <c:axId val="168670720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="168669184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168670720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168670720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168669184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6724,7 +10287,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8446,7 +12009,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8879,7 +12442,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8925,7 +12488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9474,7 +13036,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9611,7 +13172,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9657,7 +13218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9981,7 +13541,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10027,7 +13587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10410,7 +13969,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10667,316 +14226,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="134633088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Variant-4 Top 10 Rejection Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Station1_Top 10 Rejections'!$D$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rejection Occurrence </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Station1_Top 10 Rejections'!$C$40:$C$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Station1_Top 10 Rejections'!$D$40:$D$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A17D-4416-9E09-C17B91BBB581}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="134638528"/>
-        <c:axId val="134639072"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="134638528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="134639072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="134639072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="134638528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11154,6 +14403,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12181,6 +15468,144 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Index"/>
+      <sheetName val="All Stn pdtn summary "/>
+      <sheetName val="Variantwise Utilisation"/>
+      <sheetName val="Diagnostic"/>
+      <sheetName val="Station-Wise_Top 10 Errors"/>
+      <sheetName val="Station1_Production Summary"/>
+      <sheetName val="Station1_Top 10 Rejections"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Hourlytracker"/>
+      <sheetName val="Tools_life"/>
+      <sheetName val="Cycletime"/>
+      <sheetName val="Batchwise_Hourly_tracker"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Stn-01</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6"/>
+          <cell r="B6"/>
+        </row>
+        <row r="7">
+          <cell r="A7"/>
+          <cell r="B7"/>
+        </row>
+        <row r="8">
+          <cell r="A8"/>
+          <cell r="B8"/>
+        </row>
+        <row r="9">
+          <cell r="A9"/>
+          <cell r="B9"/>
+        </row>
+        <row r="10">
+          <cell r="A10"/>
+          <cell r="B10"/>
+        </row>
+        <row r="11">
+          <cell r="A11"/>
+          <cell r="B11"/>
+        </row>
+        <row r="12">
+          <cell r="A12"/>
+          <cell r="B12"/>
+        </row>
+        <row r="13">
+          <cell r="A13"/>
+          <cell r="B13"/>
+        </row>
+        <row r="14">
+          <cell r="A14"/>
+          <cell r="B14"/>
+        </row>
+        <row r="15">
+          <cell r="A15"/>
+          <cell r="B15"/>
+        </row>
+        <row r="16">
+          <cell r="A16"/>
+          <cell r="B16"/>
+        </row>
+        <row r="17">
+          <cell r="A17"/>
+          <cell r="B17"/>
+        </row>
+        <row r="18">
+          <cell r="A18"/>
+          <cell r="B18"/>
+        </row>
+        <row r="19">
+          <cell r="A19"/>
+          <cell r="B19"/>
+        </row>
+        <row r="20">
+          <cell r="A20"/>
+          <cell r="B20"/>
+        </row>
+        <row r="21">
+          <cell r="A21"/>
+          <cell r="B21"/>
+        </row>
+        <row r="22">
+          <cell r="A22"/>
+          <cell r="B22"/>
+        </row>
+        <row r="23">
+          <cell r="A23"/>
+          <cell r="B23"/>
+        </row>
+        <row r="24">
+          <cell r="A24"/>
+          <cell r="B24"/>
+        </row>
+        <row r="25">
+          <cell r="A25"/>
+          <cell r="B25"/>
+        </row>
+        <row r="26">
+          <cell r="A26"/>
+          <cell r="B26"/>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Cum. pdtn/stn</v>
+          </cell>
+          <cell r="B27">
+            <v>0</v>
+          </cell>
+          <cell r="C27"/>
+          <cell r="D27"/>
+          <cell r="E27"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -12491,85 +15916,85 @@
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="95" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
     </row>
     <row r="3" spans="2:19" ht="15" customHeight="1">
       <c r="B3" s="37"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="105"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1">
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="105"/>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="40"/>
       <c r="C5" s="41"/>
       <c r="D5" s="42"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="103"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="108"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" customHeight="1">
       <c r="B7" s="8" t="s">
@@ -12577,18 +16002,16 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="9">
-        <v>44987</v>
-      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
       <c r="I7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
@@ -12605,9 +16028,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="9">
-        <v>44986</v>
-      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="2"/>
       <c r="J8" s="6"/>
       <c r="N8" s="2"/>
@@ -12618,306 +16039,306 @@
     </row>
     <row r="9" spans="2:19" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="10" spans="2:19" ht="15" customHeight="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="106"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="111"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="109"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="114"/>
     </row>
     <row r="12" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="110" t="s">
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="112"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="117"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" customHeight="1">
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
     </row>
     <row r="14" spans="2:19" ht="15.75" customHeight="1">
       <c r="B14" s="13">
-        <v>4</v>
-      </c>
-      <c r="C14" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="82" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
     </row>
     <row r="15" spans="2:19" ht="15.75" customHeight="1">
       <c r="B15" s="14">
-        <v>5</v>
-      </c>
-      <c r="C15" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="82" t="s">
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
     </row>
     <row r="16" spans="2:19" ht="15.75" customHeight="1">
       <c r="B16" s="13">
-        <v>6</v>
-      </c>
-      <c r="C16" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82" t="s">
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" customHeight="1">
       <c r="B17" s="14">
-        <v>7</v>
-      </c>
-      <c r="C17" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" customHeight="1">
       <c r="B18" s="13">
-        <v>8</v>
-      </c>
-      <c r="C18" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="82" t="s">
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" customHeight="1">
       <c r="B19" s="14">
+        <v>7</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+    </row>
+    <row r="20" spans="2:19" ht="15.75">
+      <c r="B20" s="13">
+        <v>8</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="84"/>
+    </row>
+    <row r="21" spans="2:19" ht="15.75">
+      <c r="B21" s="14">
         <v>9</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="C20" s="72" t="s">
+      <c r="C21" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="77"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="1">
-        <v>11</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="77"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12934,10 +16355,10 @@
     <mergeCell ref="K15:S15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="K16:S16"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:S21"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="K20:S20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:S21"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="K17:S17"/>
     <mergeCell ref="C18:J18"/>
@@ -13003,22 +16424,22 @@
     <hyperlink ref="H19" location="Tools_life!A1" display="Tools_life!A1"/>
     <hyperlink ref="I19" location="Tools_life!A1" display="Tools_life!A1"/>
     <hyperlink ref="J19" location="Tools_life!A1" display="Tools_life!A1"/>
-    <hyperlink ref="C20" location="Batchwise_Hourly_tracker!A1" display="Batchwise Hourly Tracker"/>
-    <hyperlink ref="D20" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
-    <hyperlink ref="E20" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
-    <hyperlink ref="F20" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
-    <hyperlink ref="G20" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
-    <hyperlink ref="H20" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
-    <hyperlink ref="I20" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
-    <hyperlink ref="J20" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
-    <hyperlink ref="C21" location="Cycletime!A1" display="Cycletime"/>
-    <hyperlink ref="D21" location="Cycletime!A1" display="Cycletime!A1"/>
-    <hyperlink ref="E21" location="Cycletime!A1" display="Cycletime!A1"/>
-    <hyperlink ref="F21" location="Cycletime!A1" display="Cycletime!A1"/>
-    <hyperlink ref="G21" location="Cycletime!A1" display="Cycletime!A1"/>
-    <hyperlink ref="H21" location="Cycletime!A1" display="Cycletime!A1"/>
-    <hyperlink ref="I21" location="Cycletime!A1" display="Cycletime!A1"/>
-    <hyperlink ref="J21" location="Cycletime!A1" display="Cycletime!A1"/>
+    <hyperlink ref="C21" location="Batchwise_Hourly_tracker!A1" display="Batchwise Hourly Tracker"/>
+    <hyperlink ref="D21" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
+    <hyperlink ref="E21" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
+    <hyperlink ref="F21" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
+    <hyperlink ref="G21" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
+    <hyperlink ref="H21" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
+    <hyperlink ref="I21" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
+    <hyperlink ref="J21" location="Batchwise_Hourly_tracker!A1" display="Batchwise_Hourly_tracker!A1"/>
+    <hyperlink ref="C20" location="Cycletime!A1" display="Cycletime"/>
+    <hyperlink ref="D20" location="Cycletime!A1" display="Cycletime!A1"/>
+    <hyperlink ref="E20" location="Cycletime!A1" display="Cycletime!A1"/>
+    <hyperlink ref="F20" location="Cycletime!A1" display="Cycletime!A1"/>
+    <hyperlink ref="G20" location="Cycletime!A1" display="Cycletime!A1"/>
+    <hyperlink ref="H20" location="Cycletime!A1" display="Cycletime!A1"/>
+    <hyperlink ref="I20" location="Cycletime!A1" display="Cycletime!A1"/>
+    <hyperlink ref="J20" location="Cycletime!A1" display="Cycletime!A1"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId2"/>
@@ -13059,17 +16480,17 @@
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
@@ -13078,17 +16499,17 @@
       <c r="R1" s="48"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -13445,9 +16866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -13595,169 +17014,169 @@
       <c r="A3" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13781,26 +17200,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="68" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="13.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="70"/>
+    <col min="6" max="6" width="14" style="70" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="69" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13809,334 +17225,533 @@
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="5"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="5"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="5"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="5"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="5"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="5"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" customFormat="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="72"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="1"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="G13" s="69"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="1"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="G14" s="69"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="1"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="G15" s="69"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="1"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="G16" s="69"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="G17" s="69"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="G18" s="69"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="G19" s="69"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="G20" s="69"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="G21" s="69"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="G22" s="69"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="G23" s="69"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="G24" s="69"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="G25" s="69"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="G26" s="69"/>
-    </row>
-    <row r="27" spans="1:7" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="76"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="76"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="76"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="74"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="74"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="76"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="76"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="76"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="76"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="76"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+    </row>
+    <row r="27" spans="1:21" ht="30">
       <c r="A27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="113">
+      <c r="B27" s="118">
         <f>SUM(B6:B26)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -14221,14 +17836,14 @@
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
     </row>
     <row r="2" spans="1:24" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" t="s">
@@ -14517,19 +18132,19 @@
       <c r="X14"/>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116">
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123">
         <f>1440-J14</f>
         <v>1440</v>
       </c>
-      <c r="H15" s="116"/>
+      <c r="H15" s="123"/>
       <c r="J15"/>
       <c r="U15"/>
       <c r="V15"/>
@@ -14703,11 +18318,11 @@
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
     </row>
@@ -15135,7 +18750,7 @@
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
@@ -15166,12 +18781,12 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
@@ -15180,12 +18795,12 @@
       <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:11">
@@ -15456,18 +19071,18 @@
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
@@ -15609,12 +19224,12 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="51" t="s">
@@ -16262,26 +19877,26 @@
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="53" t="s">
